--- a/mars_dust_data.xlsx
+++ b/mars_dust_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prema\Downloads\Hackathon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8C31389-D308-48C4-B43A-D1FF9AEEF10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDEBBEFF-F1F7-4A6A-9116-172AF0964D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{724B2D30-688F-4A0E-B8B5-1D825C374E09}"/>
   </bookViews>
